--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL   ARCHIVO   2 0 2 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL#16   ARCHIVO   2 0 2 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -600,7 +600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1709,12 +1709,18 @@
       </c>
     </row>
     <row r="78" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="6"/>
+      <c r="B78" s="2">
+        <v>45296</v>
+      </c>
+      <c r="C78" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="6">
+        <v>-159</v>
+      </c>
       <c r="E78" s="6">
         <f t="shared" si="1"/>
-        <v>557</v>
+        <v>398</v>
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
@@ -1723,7 +1729,7 @@
       <c r="D79" s="6"/>
       <c r="E79" s="6">
         <f t="shared" si="1"/>
-        <v>557</v>
+        <v>398</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
@@ -1732,7 +1738,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6">
         <f t="shared" si="1"/>
-        <v>557</v>
+        <v>398</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
@@ -1741,7 +1747,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6">
         <f t="shared" si="1"/>
-        <v>557</v>
+        <v>398</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
@@ -1750,7 +1756,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6">
         <f t="shared" si="1"/>
-        <v>557</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">

--- a/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL#16   ARCHIVO   2 0 2 3/I R A N A   2023.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="12">
   <si>
     <t xml:space="preserve">GASTOS DE  AGUA   SENDEROS        I R A N A </t>
   </si>
@@ -600,7 +600,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1724,12 +1724,18 @@
       </c>
     </row>
     <row r="79" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B79" s="2"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="6"/>
+      <c r="B79" s="2">
+        <v>45300</v>
+      </c>
+      <c r="C79" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D79" s="6">
+        <v>-212</v>
+      </c>
       <c r="E79" s="6">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="2:5" x14ac:dyDescent="0.3">
@@ -1738,7 +1744,7 @@
       <c r="D80" s="6"/>
       <c r="E80" s="6">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="2:5" x14ac:dyDescent="0.3">
@@ -1747,7 +1753,7 @@
       <c r="D81" s="6"/>
       <c r="E81" s="6">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="2:5" x14ac:dyDescent="0.3">
@@ -1756,7 +1762,7 @@
       <c r="D82" s="6"/>
       <c r="E82" s="6">
         <f t="shared" si="1"/>
-        <v>398</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
